--- a/biology/Médecine/Cellulite_à_éosinophiles/Cellulite_à_éosinophiles.xlsx
+++ b/biology/Médecine/Cellulite_à_éosinophiles/Cellulite_à_éosinophiles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cellulite_%C3%A0_%C3%A9osinophiles</t>
+          <t>Cellulite_à_éosinophiles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La cellulite à éosinophile est une forme rare de cellulite (infection) dont la cause n'est pas infectieuse et caractérisée par un infiltrat de polynucléaires éosinophiles. Elle est aussi appelée « syndrome de Wells ».
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cellulite_%C3%A0_%C3%A9osinophiles</t>
+          <t>Cellulite_à_éosinophiles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Cause</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est inconnue. Certains médicaments sont suspectés de pouvoir déclencher la maladie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est inconnue. Certains médicaments sont suspectés de pouvoir déclencher la maladie.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cellulite_%C3%A0_%C3%A9osinophiles</t>
+          <t>Cellulite_à_éosinophiles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se présente sous forme d'une plaque érythémateuse et prurigineuse, surtout chez l'enfant. Chez l'adulte, elle peut prendre la forme d'un granulome annulaire[2]. Elle peut s'accompagner d'une fièvre, de douleurs articulaires[3].
-L'évolution se fait sur plusieurs semaines ou mois, avec possible récidive[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se présente sous forme d'une plaque érythémateuse et prurigineuse, surtout chez l'enfant. Chez l'adulte, elle peut prendre la forme d'un granulome annulaire. Elle peut s'accompagner d'une fièvre, de douleurs articulaires.
+L'évolution se fait sur plusieurs semaines ou mois, avec possible récidive.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cellulite_%C3%A0_%C3%A9osinophiles</t>
+          <t>Cellulite_à_éosinophiles</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se fait par une biopsie cutanée montrant un œdème du derme, avec une infiltration de polynucléaires éosinophiles et présence d'histiocytes[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se fait par une biopsie cutanée montrant un œdème du derme, avec une infiltration de polynucléaires éosinophiles et présence d'histiocytes.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cellulite_%C3%A0_%C3%A9osinophiles</t>
+          <t>Cellulite_à_éosinophiles</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les corticoïdes par voie orale sont plus efficaces que par voie locale. Des antihistaminiques peuvent être donnés[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les corticoïdes par voie orale sont plus efficaces que par voie locale. Des antihistaminiques peuvent être donnés.
 </t>
         </is>
       </c>
